--- a/input/Quadratic3_Fluid.xlsx
+++ b/input/Quadratic3_Fluid.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>0.5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.111022483819561</v>
+        <v>0.1350629056282652</v>
       </c>
       <c r="C2" t="n">
-        <v>18.02537151475165</v>
+        <v>17.3793037085187</v>
       </c>
       <c r="D2" t="n">
-        <v>0.587043798600186</v>
+        <v>0.4960521812499193</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="B3" t="n">
-        <v>0.09177242612285472</v>
+        <v>0.1016206307172993</v>
       </c>
       <c r="C3" t="n">
-        <v>21.59288960897988</v>
+        <v>19.75333766694175</v>
       </c>
       <c r="D3" t="n">
-        <v>0.651386251552637</v>
+        <v>0.4789792204747245</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>0.9736842105263157</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1049639385433758</v>
+        <v>0.06108207437865381</v>
       </c>
       <c r="C4" t="n">
-        <v>23.79343771066285</v>
+        <v>23.85121192697551</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6670743428321688</v>
+        <v>0.2817078893979832</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1.210526315789474</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08100650957787631</v>
+        <v>0.05634322691776208</v>
       </c>
       <c r="C5" t="n">
-        <v>26.55853997028168</v>
+        <v>26.2486084269945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5948575182209936</v>
+        <v>0.494516332137253</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1.447368421052631</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06988149774155429</v>
+        <v>0.06969296911682632</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26727639527593</v>
+        <v>26.07720179501735</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6528243422555546</v>
+        <v>0.6387577184106538</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1.684210526315789</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08539392004803054</v>
+        <v>0.06067078274357841</v>
       </c>
       <c r="C7" t="n">
-        <v>28.70764009950362</v>
+        <v>29.85133070873766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3079629366274844</v>
+        <v>0.4812835823967427</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>1.921052631578947</v>
       </c>
       <c r="B8" t="n">
-        <v>0.09297030130084782</v>
+        <v>0.1008969320459298</v>
       </c>
       <c r="C8" t="n">
-        <v>31.78110220112858</v>
+        <v>31.6273879798011</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7317748344900687</v>
+        <v>0.3881698754362048</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2.157894736842105</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08660060123830926</v>
+        <v>0.103575790476888</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3002754187678</v>
+        <v>34.6009746266031</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7177125224719871</v>
+        <v>0.6264967781249315</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2.394736842105263</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07239371935298904</v>
+        <v>0.1262253520337998</v>
       </c>
       <c r="C10" t="n">
-        <v>33.42646467799359</v>
+        <v>33.61862432298814</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2725261763996745</v>
+        <v>0.6013241853193693</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>2.631578947368421</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1049718685821044</v>
+        <v>0.1218480528061232</v>
       </c>
       <c r="C11" t="n">
-        <v>36.71027152968802</v>
+        <v>34.00647442646644</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7453761204801113</v>
+        <v>0.7177278670250145</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>2.868421052631579</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1080475715385621</v>
+        <v>0.1046893883530775</v>
       </c>
       <c r="C12" t="n">
-        <v>35.83359692212716</v>
+        <v>37.06859728901351</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2705801439578833</v>
+        <v>0.4602523857549154</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>3.105263157894737</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1165370622237269</v>
+        <v>0.07514080095025165</v>
       </c>
       <c r="C13" t="n">
-        <v>37.31693543327442</v>
+        <v>38.16035197397574</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6567076945491939</v>
+        <v>0.663602089619127</v>
       </c>
     </row>
     <row r="14">
@@ -628,13 +628,13 @@
         <v>3.342105263157895</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1457337619738638</v>
+        <v>0.1166433897191031</v>
       </c>
       <c r="C14" t="n">
-        <v>37.27901456785372</v>
+        <v>39.45385403513613</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6569491999895617</v>
+        <v>0.3882435901297552</v>
       </c>
     </row>
     <row r="15">
@@ -642,13 +642,13 @@
         <v>3.578947368421053</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06676972423879078</v>
+        <v>0.09926335682753863</v>
       </c>
       <c r="C15" t="n">
-        <v>38.47385747663424</v>
+        <v>37.85426367235398</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2814711137827012</v>
+        <v>0.3078391237458981</v>
       </c>
     </row>
     <row r="16">
@@ -656,13 +656,13 @@
         <v>3.81578947368421</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1286107178869453</v>
+        <v>0.05232827427921165</v>
       </c>
       <c r="C16" t="n">
-        <v>36.50108854308422</v>
+        <v>38.65343111790397</v>
       </c>
       <c r="D16" t="n">
-        <v>0.324387147519107</v>
+        <v>0.5455796909816264</v>
       </c>
     </row>
     <row r="17">
@@ -670,13 +670,13 @@
         <v>4.052631578947368</v>
       </c>
       <c r="B17" t="n">
-        <v>0.05312164398121758</v>
+        <v>0.102180339106266</v>
       </c>
       <c r="C17" t="n">
-        <v>37.53925518150234</v>
+        <v>38.70765324435842</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4711260433548114</v>
+        <v>0.610214476017145</v>
       </c>
     </row>
     <row r="18">
@@ -684,13 +684,13 @@
         <v>4.289473684210526</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1049805441219751</v>
+        <v>0.1192574534390154</v>
       </c>
       <c r="C18" t="n">
-        <v>38.26779905554259</v>
+        <v>38.35797666710676</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3127707844798903</v>
+        <v>0.3101769623762196</v>
       </c>
     </row>
     <row r="19">
@@ -698,13 +698,13 @@
         <v>4.526315789473684</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1202342748037956</v>
+        <v>0.1476867174960188</v>
       </c>
       <c r="C19" t="n">
-        <v>37.38288351983202</v>
+        <v>37.01633085990378</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6688450748281172</v>
+        <v>0.3300551408763464</v>
       </c>
     </row>
     <row r="20">
@@ -712,13 +712,13 @@
         <v>4.763157894736842</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1140244892010398</v>
+        <v>0.07154082584924241</v>
       </c>
       <c r="C20" t="n">
-        <v>35.35799522934795</v>
+        <v>35.99943341642707</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6587980742694439</v>
+        <v>0.6545905976114401</v>
       </c>
     </row>
     <row r="21">
@@ -726,13 +726,13 @@
         <v>5</v>
       </c>
       <c r="B21" t="n">
-        <v>0.147387390725139</v>
+        <v>0.06377467115624964</v>
       </c>
       <c r="C21" t="n">
-        <v>34.50434056775878</v>
+        <v>35.55975371648374</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3682016785784642</v>
+        <v>0.2916996486562654</v>
       </c>
     </row>
   </sheetData>
